--- a/Data/Final.xlsx
+++ b/Data/Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPath\Asper Casino POC\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4602E8-798B-4425-B166-1F9F0C590712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C2B8D4-B5C7-4BA5-A1EF-C8E950727FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{25E443E0-11CE-4147-9F2C-2DDF9A563743}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7460" xr2:uid="{91566569-31D6-4D4B-8358-5EF4B8383DFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527BE9F5-B60F-4A4E-AE03-54F88F7C5BDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8352150-2F05-4D1E-8757-024644BB4918}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
